--- a/Src/Assets/Addressable Asset/Data/ExcelData/Excel/Language.xlsx
+++ b/Src/Assets/Addressable Asset/Data/ExcelData/Excel/Language.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E9CB8-9465-4779-89F8-91050138ADEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1EF08-5F82-487E-AE1E-4F88314C4FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Languagekey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,62 +559,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>100007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>100008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>100009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>100010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Assets/Addressable Asset/Data/ExcelData/Excel/Language.xlsx
+++ b/Src/Assets/Addressable Asset/Data/ExcelData/Excel/Language.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1EF08-5F82-487E-AE1E-4F88314C4FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338337F-4304-4C0C-9BE0-492D8D62FD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Languagekey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,48 +517,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>100004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>100005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>100006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
